--- a/DiseñoCasosPrueba_NewExperience.xlsx
+++ b/DiseñoCasosPrueba_NewExperience.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catalinaa\Documents\Tech_solve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catalinaa\Documents\prueba técnica choucair\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="CP 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="90">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Posicionar puntero en el tab "dresses"</t>
+  </si>
+  <si>
+    <t>Automated?</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -319,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,10 +351,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +659,7 @@
     <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,8 +699,11 @@
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -747,7 +764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -767,7 +784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -787,7 +804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -807,7 +824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
         <v>6</v>
       </c>
@@ -830,48 +847,51 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
         <v>2</v>
       </c>
@@ -891,7 +911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G10" s="1">
         <v>3</v>
       </c>
@@ -911,7 +931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -931,7 +951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
         <v>5</v>
       </c>
@@ -951,7 +971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
         <v>6</v>
       </c>
@@ -971,7 +991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G15" s="1">
         <v>2</v>
       </c>
@@ -1032,7 +1052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G16" s="1">
         <v>3</v>
       </c>
@@ -1155,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1187,7 @@
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,49 +1227,55 @@
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -1272,7 +1298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -1292,7 +1318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -1358,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A4" activeCellId="1" sqref="A2:XFD2 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1396,7 @@
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1410,49 +1436,55 @@
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -1472,45 +1504,48 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>2</v>
       </c>
@@ -1566,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1612,7 @@
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1617,8 +1652,11 @@
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -1679,7 +1717,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -1699,7 +1737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -1719,7 +1757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1783,7 +1821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1809,7 +1847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1865,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,7 +1915,7 @@
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1917,8 +1955,11 @@
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1959,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -1982,7 +2023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -2002,7 +2043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -2022,7 +2063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -2042,7 +2083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -2062,7 +2103,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G8" s="1">
         <v>2</v>
       </c>
@@ -2082,7 +2123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -2102,7 +2143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -2122,7 +2163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G11" s="1">
         <v>5</v>
       </c>
